--- a/biology/Zoologie/Dytiscus/Dytiscus.xlsx
+++ b/biology/Zoologie/Dytiscus/Dytiscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dytiscus est un genre de coléoptères dulçaquicoles de la famille des dytiscidés (les dytiques).
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dytiscus circumcinctus (Ahrens, 1811)
 Dytiscus circumflexus (Fabricius, 1801)
@@ -551,9 +565,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (23 juin 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 juin 2021) :
 Dytiscus alaskanus J. Balfour-Browne, 1944
 Dytiscus carolinus Aubé, 1838
 Dytiscus circumcinctus Ahrens, 1811
@@ -581,7 +597,7 @@
 Dytiscus sinensis Feng, 1935
 Dytiscus thianschanicus (Gschwendtner, 1923)
 Dytiscus verticalis Say, 1823
-Selon ITIS      (31 août 2014)[2] :
+Selon ITIS      (31 août 2014) :
 Dytiscus alaskanus J. Balfour-Browne, 1944
 Dytiscus carolinus Aubé, 1838
 Dytiscus circumcinctus Ahrens, 1811
@@ -638,9 +654,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la Paleobiology Database en 2023, les espèces fossiles référencées sont les cinq suivantes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la Paleobiology Database en 2023, les espèces fossiles référencées sont les cinq suivantes :
 †Dytiscus avunculus, von Heyden 1862
 †Dytiscus latahensis, Wickham 1931
 †Dytiscus lavateri, Heer 1847
